--- a/results/I3_N5_M2_T30_C100_DepCentral_s1_res_fix.xlsx
+++ b/results/I3_N5_M2_T30_C100_DepCentral_s1_res_fix.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2377.445140676658</v>
+        <v>839.0640986386819</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.008999824523925781</v>
+        <v>0.005000114440917969</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>27.30223322084831</v>
+        <v>25.77665327570422</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>18.09076547139664</v>
+        <v>7.022858314035492</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7.483672927198604</v>
+        <v>4.310303677013298</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2003.400000000007</v>
+        <v>738</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>357.35</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -557,7 +557,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -598,7 +598,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -606,10 +606,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -617,10 +617,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -628,67 +628,12 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B6" t="n">
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>2</v>
-      </c>
-      <c r="B7" t="n">
-        <v>1</v>
-      </c>
-      <c r="C7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>2</v>
-      </c>
-      <c r="B8" t="n">
-        <v>2</v>
-      </c>
-      <c r="C8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>2</v>
-      </c>
-      <c r="B9" t="n">
-        <v>3</v>
-      </c>
-      <c r="C9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>2</v>
-      </c>
-      <c r="B10" t="n">
-        <v>4</v>
-      </c>
-      <c r="C10" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>2</v>
-      </c>
-      <c r="B11" t="n">
-        <v>5</v>
-      </c>
-      <c r="C11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -733,7 +678,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -744,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -766,7 +711,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -788,7 +733,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -799,7 +744,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -846,7 +791,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -857,7 +802,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -868,7 +813,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -879,7 +824,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -890,7 +835,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -962,7 +907,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>6.304638042085728</v>
+        <v>25.54582726020204</v>
       </c>
     </row>
     <row r="4">
@@ -970,7 +915,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>11.60181147454999</v>
+        <v>21.60181147454999</v>
       </c>
     </row>
     <row r="5">
@@ -978,7 +923,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6">
@@ -986,7 +931,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>22.48909622152298</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -994,7 +939,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>18.76616769126618</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8">
@@ -1002,7 +947,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>27.23104729676617</v>
+        <v>25.39012244383432</v>
       </c>
     </row>
     <row r="9">
@@ -1010,7 +955,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>23.69536195791427</v>
+        <v>29.24118921811631</v>
       </c>
     </row>
   </sheetData>
@@ -1024,7 +969,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1126,13 +1071,13 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
         <v>1</v>
@@ -1140,13 +1085,13 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
         <v>1</v>
@@ -1154,183 +1099,15 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B9" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>2</v>
-      </c>
-      <c r="B10" t="n">
-        <v>5</v>
-      </c>
-      <c r="C10" t="n">
-        <v>4</v>
-      </c>
-      <c r="D10" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>2</v>
-      </c>
-      <c r="B11" t="n">
-        <v>5</v>
-      </c>
-      <c r="C11" t="n">
-        <v>5</v>
-      </c>
-      <c r="D11" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>4</v>
-      </c>
-      <c r="B12" t="n">
-        <v>6</v>
-      </c>
-      <c r="C12" t="n">
-        <v>1</v>
-      </c>
-      <c r="D12" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>4</v>
-      </c>
-      <c r="B13" t="n">
-        <v>6</v>
-      </c>
-      <c r="C13" t="n">
-        <v>2</v>
-      </c>
-      <c r="D13" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>4</v>
-      </c>
-      <c r="B14" t="n">
-        <v>6</v>
-      </c>
-      <c r="C14" t="n">
-        <v>3</v>
-      </c>
-      <c r="D14" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>4</v>
-      </c>
-      <c r="B15" t="n">
-        <v>6</v>
-      </c>
-      <c r="C15" t="n">
-        <v>4</v>
-      </c>
-      <c r="D15" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>4</v>
-      </c>
-      <c r="B16" t="n">
-        <v>6</v>
-      </c>
-      <c r="C16" t="n">
-        <v>5</v>
-      </c>
-      <c r="D16" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>5</v>
-      </c>
-      <c r="B17" t="n">
-        <v>4</v>
-      </c>
-      <c r="C17" t="n">
-        <v>1</v>
-      </c>
-      <c r="D17" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
-        <v>5</v>
-      </c>
-      <c r="B18" t="n">
-        <v>4</v>
-      </c>
-      <c r="C18" t="n">
-        <v>2</v>
-      </c>
-      <c r="D18" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
-        <v>5</v>
-      </c>
-      <c r="B19" t="n">
-        <v>4</v>
-      </c>
-      <c r="C19" t="n">
-        <v>3</v>
-      </c>
-      <c r="D19" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
-        <v>5</v>
-      </c>
-      <c r="B20" t="n">
-        <v>4</v>
-      </c>
-      <c r="C20" t="n">
-        <v>4</v>
-      </c>
-      <c r="D20" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="n">
-        <v>5</v>
-      </c>
-      <c r="B21" t="n">
-        <v>4</v>
-      </c>
-      <c r="C21" t="n">
-        <v>5</v>
-      </c>
-      <c r="D21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1433,7 +1210,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>115.6100000000003</v>
+        <v>162</v>
       </c>
     </row>
     <row r="8">
@@ -1444,7 +1221,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>113.5950000000003</v>
+        <v>165</v>
       </c>
     </row>
     <row r="9">
@@ -1455,7 +1232,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>115.2400000000003</v>
+        <v>164</v>
       </c>
     </row>
     <row r="10">
@@ -1466,7 +1243,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>111.4400000000003</v>
+        <v>162</v>
       </c>
     </row>
     <row r="11">
@@ -1477,7 +1254,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>113.6550000000003</v>
+        <v>163</v>
       </c>
     </row>
     <row r="12">
@@ -1488,7 +1265,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>125.4949999999988</v>
+        <v>108</v>
       </c>
     </row>
     <row r="13">
@@ -1499,7 +1276,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>121.635</v>
+        <v>113</v>
       </c>
     </row>
     <row r="14">
@@ -1510,7 +1287,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>109.37</v>
+        <v>115</v>
       </c>
     </row>
     <row r="15">
@@ -1521,7 +1298,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>122.055</v>
+        <v>111</v>
       </c>
     </row>
     <row r="16">
@@ -1532,7 +1309,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>123.5549999999988</v>
+        <v>106</v>
       </c>
     </row>
     <row r="17">
@@ -1543,7 +1320,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>81.05499999999913</v>
+        <v>56</v>
       </c>
     </row>
     <row r="18">
@@ -1554,7 +1331,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>83.09999999999999</v>
+        <v>59</v>
       </c>
     </row>
     <row r="19">
@@ -1565,7 +1342,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="20">
@@ -1576,7 +1353,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>76.23999999999913</v>
+        <v>61</v>
       </c>
     </row>
     <row r="21">
@@ -1587,7 +1364,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>77.71999999999913</v>
+        <v>62</v>
       </c>
     </row>
     <row r="22">
@@ -1598,7 +1375,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>290.4</v>
+        <v>40</v>
       </c>
     </row>
     <row r="23">
@@ -1609,7 +1386,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>283.0450000000009</v>
+        <v>49</v>
       </c>
     </row>
     <row r="24">
@@ -1620,7 +1397,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>274.2350000000009</v>
+        <v>48</v>
       </c>
     </row>
     <row r="25">
@@ -1631,7 +1408,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>291.9350000000009</v>
+        <v>42</v>
       </c>
     </row>
     <row r="26">
@@ -1642,7 +1419,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>292.5449999999997</v>
+        <v>40</v>
       </c>
     </row>
     <row r="27">
@@ -1653,7 +1430,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>214.5099999999992</v>
+        <v>99</v>
       </c>
     </row>
     <row r="28">
@@ -1664,7 +1441,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>207.3550000000004</v>
+        <v>105</v>
       </c>
     </row>
     <row r="29">
@@ -1675,7 +1452,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>194.0350000000004</v>
+        <v>101</v>
       </c>
     </row>
     <row r="30">
@@ -1686,7 +1463,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>211.6800000000003</v>
+        <v>98</v>
       </c>
     </row>
     <row r="31">
@@ -1697,7 +1474,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>216.9799999999992</v>
+        <v>107</v>
       </c>
     </row>
     <row r="32">
@@ -1708,7 +1485,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>290.4</v>
+        <v>108</v>
       </c>
     </row>
     <row r="33">
@@ -1719,7 +1496,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>283.0450000000009</v>
+        <v>113</v>
       </c>
     </row>
     <row r="34">
@@ -1730,7 +1507,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>274.2350000000009</v>
+        <v>115</v>
       </c>
     </row>
     <row r="35">
@@ -1741,7 +1518,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>291.9350000000009</v>
+        <v>111</v>
       </c>
     </row>
     <row r="36">
@@ -1752,7 +1529,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>292.5449999999997</v>
+        <v>106</v>
       </c>
     </row>
     <row r="37">
@@ -1763,7 +1540,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>115.6100000000003</v>
+        <v>162</v>
       </c>
     </row>
     <row r="38">
@@ -1774,7 +1551,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>113.5950000000003</v>
+        <v>165</v>
       </c>
     </row>
     <row r="39">
@@ -1785,7 +1562,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>115.2400000000003</v>
+        <v>164</v>
       </c>
     </row>
     <row r="40">
@@ -1796,7 +1573,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>111.4400000000003</v>
+        <v>162</v>
       </c>
     </row>
     <row r="41">
@@ -1807,7 +1584,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>113.6550000000003</v>
+        <v>163</v>
       </c>
     </row>
   </sheetData>
@@ -1854,7 +1631,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>190.4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -1865,7 +1642,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>183.0450000000009</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4">
@@ -1876,7 +1653,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>174.2350000000009</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5">
@@ -1887,7 +1664,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>191.9350000000009</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6">
@@ -1898,7 +1675,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>192.5449999999997</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7">
@@ -1909,7 +1686,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>15.6100000000003</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8">
@@ -1920,7 +1697,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>13.5950000000003</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9">
@@ -1931,7 +1708,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>15.24000000000029</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10">
@@ -1942,7 +1719,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>11.4400000000003</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11">
@@ -1953,7 +1730,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>13.65500000000029</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -2000,7 +1777,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>11.36</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -2011,7 +1788,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>14.055</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -2022,7 +1799,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>21.615</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -2033,7 +1810,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>15.815</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -2044,7 +1821,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>9.824999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -2055,7 +1832,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>2.605</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -2066,7 +1843,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>6.69</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -2077,7 +1854,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>5.28</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -2088,7 +1865,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>5.71</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -2099,7 +1876,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>3.43</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -2110,7 +1887,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>4.015</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -2121,7 +1898,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>5.44</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -2132,7 +1909,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>6.91</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -2143,7 +1920,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>6.73</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -2154,7 +1931,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>5.025</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -2165,7 +1942,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18">
@@ -2176,7 +1953,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19">
@@ -2187,7 +1964,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20">
@@ -2198,7 +1975,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21">
@@ -2209,7 +1986,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22">
@@ -2220,7 +1997,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>12.71</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2231,7 +2008,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>10.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2242,7 +2019,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>13.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2253,7 +2030,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>7.32</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2264,7 +2041,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>10.14</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2278,7 +2055,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2415,10 +2192,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C12" t="n">
         <v>1</v>
@@ -2426,10 +2203,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C13" t="n">
         <v>1</v>
@@ -2437,89 +2214,12 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B14" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C14" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>4</v>
-      </c>
-      <c r="B15" t="n">
-        <v>4</v>
-      </c>
-      <c r="C15" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>4</v>
-      </c>
-      <c r="B16" t="n">
-        <v>5</v>
-      </c>
-      <c r="C16" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>5</v>
-      </c>
-      <c r="B17" t="n">
-        <v>1</v>
-      </c>
-      <c r="C17" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
-        <v>5</v>
-      </c>
-      <c r="B18" t="n">
-        <v>2</v>
-      </c>
-      <c r="C18" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
-        <v>5</v>
-      </c>
-      <c r="B19" t="n">
-        <v>3</v>
-      </c>
-      <c r="C19" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
-        <v>5</v>
-      </c>
-      <c r="B20" t="n">
-        <v>4</v>
-      </c>
-      <c r="C20" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="n">
-        <v>5</v>
-      </c>
-      <c r="B21" t="n">
-        <v>5</v>
-      </c>
-      <c r="C21" t="n">
         <v>1</v>
       </c>
     </row>
